--- a/Cảm biến.xlsx
+++ b/Cảm biến.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43e69fe3b798304f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43e69fe3b798304f/Work/PIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636CB955-D6C3-4C06-B85B-1231077217EC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2257B324-8800-4E45-B717-E01111F22022}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Zero</t>
   </si>
@@ -49,6 +50,66 @@
   </si>
   <si>
     <t>Áp lực/mực nước</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>Bờ kè 1</t>
+  </si>
+  <si>
+    <t>0334650705</t>
+  </si>
+  <si>
+    <t>ECOD10</t>
+  </si>
+  <si>
+    <t>Bờ kè 2</t>
+  </si>
+  <si>
+    <t>01698443002</t>
+  </si>
+  <si>
+    <t>12D20S</t>
+  </si>
+  <si>
+    <t>Bờ kè 3</t>
+  </si>
+  <si>
+    <t>01699517089</t>
+  </si>
+  <si>
+    <t>Bờ kè 4</t>
+  </si>
+  <si>
+    <t>01699516205</t>
+  </si>
+  <si>
+    <t>N.T.Bình</t>
+  </si>
+  <si>
+    <t>01698443068</t>
+  </si>
+  <si>
+    <t>THPT1</t>
+  </si>
+  <si>
+    <t>01698445027</t>
+  </si>
+  <si>
+    <t>THPT2</t>
+  </si>
+  <si>
+    <t>01698443067</t>
   </si>
 </sst>
 </file>
@@ -59,7 +120,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,9 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,13 +455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -437,4 +508,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4198199E-6EFB-4E2F-AA15-45E6757C4120}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>46099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>